--- a/test.xlsx
+++ b/test.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="98">
   <si>
     <t>Company :</t>
   </si>
@@ -23,21 +23,45 @@
     <t>WBS Name</t>
   </si>
   <si>
+    <t>Customizations</t>
+  </si>
+  <si>
+    <t>In Scope</t>
+  </si>
+  <si>
+    <t>Hours</t>
+  </si>
+  <si>
+    <t>Task</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>FILL IN HOURS</t>
+  </si>
+  <si>
+    <t>Plug-ins</t>
+  </si>
+  <si>
+    <t>Add-ons</t>
+  </si>
+  <si>
+    <t>Custom HTML</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>Custom Tiles</t>
+  </si>
+  <si>
+    <t>Migrate Status Updates</t>
+  </si>
+  <si>
     <t>sso</t>
   </si>
   <si>
-    <t>In Scope</t>
-  </si>
-  <si>
-    <t>Hours</t>
-  </si>
-  <si>
-    <t>Task</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
     <t>5</t>
   </si>
   <si>
@@ -50,13 +74,235 @@
     <t>Configure SAML 2.0 Client</t>
   </si>
   <si>
-    <t>Yes</t>
-  </si>
-  <si>
     <t>60</t>
   </si>
   <si>
     <t>Create Custom SSO Plug-in</t>
+  </si>
+  <si>
+    <t>Data Migration From Jive to Jive (Per 25000 pices of content)</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>Migrate Users</t>
+  </si>
+  <si>
+    <t>Migrate Places</t>
+  </si>
+  <si>
+    <t>Migrate Jive Documents</t>
+  </si>
+  <si>
+    <t>Migrate Uploaded Documents</t>
+  </si>
+  <si>
+    <t>Migrate Discussions</t>
+  </si>
+  <si>
+    <t>Migrate Questions</t>
+  </si>
+  <si>
+    <t>Migrate Ideas</t>
+  </si>
+  <si>
+    <t>Migrate Polls</t>
+  </si>
+  <si>
+    <t>Migrate Projects</t>
+  </si>
+  <si>
+    <t>Migrate Task</t>
+  </si>
+  <si>
+    <t>Migrate Blogs / Blogpost</t>
+  </si>
+  <si>
+    <t>Migrate Bookmarks</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>Migrate Events</t>
+  </si>
+  <si>
+    <t>Migrate Videos</t>
+  </si>
+  <si>
+    <t>Migrate Ratings</t>
+  </si>
+  <si>
+    <t>Migrate Likes</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>Migrate @ mentions</t>
+  </si>
+  <si>
+    <t>Migrate Categories</t>
+  </si>
+  <si>
+    <t>Customization Plug-ins for Legacy Jive Instances</t>
+  </si>
+  <si>
+    <t>40</t>
+  </si>
+  <si>
+    <t>Initial Data Load Sample</t>
+  </si>
+  <si>
+    <t>QA / Bug Fixes (10 hrs per content type)</t>
+  </si>
+  <si>
+    <t>Dry Run</t>
+  </si>
+  <si>
+    <t>QA / Bug Fixes</t>
+  </si>
+  <si>
+    <t>Go Live</t>
+  </si>
+  <si>
+    <t>Fix Corrupt Data</t>
+  </si>
+  <si>
+    <t>Upgrade</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>Log cases with Jive</t>
+  </si>
+  <si>
+    <t>Dry Run #1</t>
+  </si>
+  <si>
+    <t>QA/ Bug Fixes</t>
+  </si>
+  <si>
+    <t>Dry Run #2</t>
+  </si>
+  <si>
+    <t>Post Upgrade Support</t>
+  </si>
+  <si>
+    <t>Box for ServiceNow</t>
+  </si>
+  <si>
+    <t>Configure Code for Customer Instance</t>
+  </si>
+  <si>
+    <t>Up to 15 hours to install and configure on Sandbox and Prod</t>
+  </si>
+  <si>
+    <t>Strategy</t>
+  </si>
+  <si>
+    <t>Custom Development Assesment</t>
+  </si>
+  <si>
+    <t>Gamification Strategy</t>
+  </si>
+  <si>
+    <t>Upgrade Strategy / Assesment</t>
+  </si>
+  <si>
+    <t>SEO Strategy</t>
+  </si>
+  <si>
+    <t>On Site (2 people/ 1 day)</t>
+  </si>
+  <si>
+    <t>Community Plan</t>
+  </si>
+  <si>
+    <t>50</t>
+  </si>
+  <si>
+    <t>Travel (2 people)</t>
+  </si>
+  <si>
+    <t>Gamification</t>
+  </si>
+  <si>
+    <t>Configure Nitro Console</t>
+  </si>
+  <si>
+    <t>Configure Rewards Console</t>
+  </si>
+  <si>
+    <t>Gamification Point Economy Plan</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>Custom Bunchball Mission (per mission)</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>Custom Quest (Rewards)</t>
+  </si>
+  <si>
+    <t>Box for SFDC</t>
+  </si>
+  <si>
+    <t>Training / Documentation</t>
+  </si>
+  <si>
+    <t>Custom Development Training</t>
+  </si>
+  <si>
+    <t>Custom Development Documentation</t>
+  </si>
+  <si>
+    <t>Gamification Training</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>Admin Console Training (Per Session)</t>
+  </si>
+  <si>
+    <t>Champion Training  (Per Session)</t>
+  </si>
+  <si>
+    <t>End User Training  (Per Session)</t>
+  </si>
+  <si>
+    <t>Group Admin Training  (Per Session)</t>
+  </si>
+  <si>
+    <t>Populate Help Center Content</t>
+  </si>
+  <si>
+    <t>Site Design (3 Initial Proposals/3 Iterations on one Proposal)</t>
+  </si>
+  <si>
+    <t>Wire Frames</t>
+  </si>
+  <si>
+    <t>Cloud Theme</t>
+  </si>
+  <si>
+    <t>Hosted / On Prem Theme (Per Theme)</t>
+  </si>
+  <si>
+    <t>SEO Theme Customization</t>
+  </si>
+  <si>
+    <t>TBD</t>
+  </si>
+  <si>
+    <t>Custom Desing Work</t>
   </si>
 </sst>
 </file>
@@ -72,26 +318,31 @@
       <name val="Calibri"/>
     </font>
     <font>
-      <name val="Comic Sans MS"/>
+      <name val="times new roman"/>
+    </font>
+    <font>
+      <color rgb="000000"/>
+      <family val="2"/>
+      <sz val="14"/>
+      <name val="times new roman"/>
     </font>
     <font>
       <b/>
       <color rgb="000000"/>
-      <family val="2"/>
       <sz val="14"/>
-      <name val="Arial Black"/>
-    </font>
-    <font>
-      <b/>
-      <color rgb="FF00FF00"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -106,15 +357,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -458,7 +713,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:C130"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="1" width="32" style="1" customWidth="1"/>
@@ -467,7 +722,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -485,19 +740,19 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="2:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="3" t="s">
+    <row r="4" spans="2:2" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
+    <row r="5" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="2" t="s">
         <v>7</v>
       </c>
     </row>
@@ -517,21 +772,913 @@
         <v>8</v>
       </c>
       <c r="B7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="1" t="s">
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="5" t="s">
+    <row r="9" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B9" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="5" t="s">
+    </row>
+    <row r="10" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="7" t="s">
         <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="2:2" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="2:2" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="56" spans="2:2" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B56" s="4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A62" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A63" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A64" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="69" spans="2:2" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B69" s="4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A71" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A72" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="77" spans="2:2" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B77" s="4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B78" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C78" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A79" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A80" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A81" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A82" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A83" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A84" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A85" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="90" spans="2:2" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B90" s="4" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A91" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B91" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C91" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A92" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C92" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A93" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C93" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A94" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C94" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A95" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B95" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C95" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A96" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B96" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C96" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="101" spans="2:2" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B101" s="4" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A102" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B102" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C102" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A103" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B103" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C103" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A104" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B104" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C104" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="109" spans="2:2" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B109" s="4" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A110" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B110" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C110" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A111" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B111" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C111" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A112" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B112" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C112" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A113" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B113" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C113" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A114" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B114" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C114" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A115" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B115" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C115" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A116" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B116" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C116" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A117" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B117" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C117" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A118" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B118" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C118" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="123" spans="2:2" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B123" s="4" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A124" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B124" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C124" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A125" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B125" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C125" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A126" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B126" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C126" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A127" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B127" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C127" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A128" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B128" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C128" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A129" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B129" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C129" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A130" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B130" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C130" s="1" t="s">
+        <v>97</v>
       </c>
     </row>
   </sheetData>

--- a/test.xlsx
+++ b/test.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="89">
   <si>
     <t>Company :</t>
   </si>
@@ -23,9 +23,6 @@
     <t>WBS Name</t>
   </si>
   <si>
-    <t>Customizations</t>
-  </si>
-  <si>
     <t>In Scope</t>
   </si>
   <si>
@@ -59,9 +56,6 @@
     <t>Migrate Status Updates</t>
   </si>
   <si>
-    <t>sso</t>
-  </si>
-  <si>
     <t>5</t>
   </si>
   <si>
@@ -80,9 +74,6 @@
     <t>Create Custom SSO Plug-in</t>
   </si>
   <si>
-    <t>Data Migration From Jive to Jive (Per 25000 pices of content)</t>
-  </si>
-  <si>
     <t>10</t>
   </si>
   <si>
@@ -170,9 +161,6 @@
     <t>Fix Corrupt Data</t>
   </si>
   <si>
-    <t>Upgrade</t>
-  </si>
-  <si>
     <t>15</t>
   </si>
   <si>
@@ -191,18 +179,12 @@
     <t>Post Upgrade Support</t>
   </si>
   <si>
-    <t>Box for ServiceNow</t>
-  </si>
-  <si>
     <t>Configure Code for Customer Instance</t>
   </si>
   <si>
     <t>Up to 15 hours to install and configure on Sandbox and Prod</t>
   </si>
   <si>
-    <t>Strategy</t>
-  </si>
-  <si>
     <t>Custom Development Assesment</t>
   </si>
   <si>
@@ -227,9 +209,6 @@
     <t>Travel (2 people)</t>
   </si>
   <si>
-    <t>Gamification</t>
-  </si>
-  <si>
     <t>Configure Nitro Console</t>
   </si>
   <si>
@@ -249,12 +228,6 @@
   </si>
   <si>
     <t>Custom Quest (Rewards)</t>
-  </si>
-  <si>
-    <t>Box for SFDC</t>
-  </si>
-  <si>
-    <t>Training / Documentation</t>
   </si>
   <si>
     <t>Custom Development Training</t>
@@ -309,7 +282,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <color theme="1"/>
       <family val="2"/>
@@ -327,9 +300,16 @@
       <name val="times new roman"/>
     </font>
     <font>
+      <color rgb="FFFCFCFC"/>
+      <family val="2"/>
+      <sz val="14"/>
+      <name val="times new roman"/>
+    </font>
+    <font>
       <b/>
       <color rgb="000000"/>
-      <sz val="14"/>
+      <sz val="13"/>
+      <name val="times new roman"/>
     </font>
   </fonts>
   <fills count="3">
@@ -341,7 +321,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
+        <fgColor rgb="FF2FA5CC"/>
       </patternFill>
     </fill>
   </fills>
@@ -357,21 +337,27 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -713,7 +699,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C130"/>
+  <dimension ref="A1:C92"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="1" width="32" style="1" customWidth="1"/>
@@ -722,7 +708,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -732,953 +718,903 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="2:2" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="4" t="s">
+    <row r="3" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
+      <c r="B3" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="C3" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>7</v>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>9</v>
-      </c>
       <c r="C6" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
+      <c r="C7" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B9" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C9" s="7" t="s">
+      <c r="C8" s="7" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B10" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C10" s="7" t="s">
+    <row r="10" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11" s="9" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="15" spans="2:2" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="4" t="s">
+      <c r="C11" s="9" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B15" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="C15" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="C16" s="2" t="s">
-        <v>7</v>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>18</v>
+      <c r="A17" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B17" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>21</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="24" spans="2:2" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>7</v>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>19</v>
+        <v>39</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>33</v>
+        <v>14</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>19</v>
+        <v>43</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>37</v>
+        <v>17</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A43" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>44</v>
+        <v>49</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B43" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C43" s="8" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>19</v>
+        <v>50</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>15</v>
+        <v>51</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>21</v>
+        <v>50</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A46" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B46" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="C46" s="1" t="s">
-        <v>47</v>
+      <c r="A46" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B46" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="C46" s="9" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>21</v>
+        <v>50</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A51" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B51" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="C51" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="56" spans="2:2" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B56" s="4" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B52" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B57" s="2" t="s">
+      <c r="C52" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="C57" s="2" t="s">
-        <v>7</v>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B56" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C56" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>54</v>
+        <v>15</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>54</v>
+        <v>17</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>54</v>
+        <v>15</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A61" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B61" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="C61" s="1" t="s">
-        <v>58</v>
+      <c r="A61" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B61" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C61" s="9" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>19</v>
+        <v>64</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A64" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B64" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="C64" s="1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="69" spans="2:2" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B69" s="4" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B65" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B70" s="2" t="s">
+      <c r="C65" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="C70" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A71" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B71" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="C71" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A72" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B72" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="C72" s="1" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="77" spans="2:2" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B77" s="4" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="2" t="s">
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A66" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A67" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A68" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A69" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A70" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B72" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B78" s="2" t="s">
+      <c r="C72" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="C78" s="2" t="s">
-        <v>7</v>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A73" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A74" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B76" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C76" s="8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A77" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A78" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A79" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B79" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C79" s="1" t="s">
-        <v>64</v>
+      <c r="A79" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B79" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C79" s="9" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>17</v>
+        <v>76</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>65</v>
+        <v>77</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>19</v>
+        <v>76</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>66</v>
+        <v>78</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>17</v>
+        <v>76</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>67</v>
+        <v>79</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B83" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A84" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B84" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C84" s="9" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A86" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B86" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C86" s="8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A87" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B87" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C83" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A84" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B84" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C84" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A85" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B85" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="C85" s="1" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="90" spans="2:2" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B90" s="4" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B91" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C91" s="2" t="s">
-        <v>7</v>
+      <c r="C87" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A88" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C88" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A89" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C89" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A90" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C90" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A91" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C91" s="1" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>24</v>
+        <v>87</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A93" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B93" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C93" s="1" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A94" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B94" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C94" s="1" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A95" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B95" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="C95" s="1" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A96" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B96" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="C96" s="1" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="101" spans="2:2" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B101" s="4" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A102" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B102" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C102" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A103" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B103" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="C103" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A104" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B104" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="C104" s="1" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="109" spans="2:2" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B109" s="4" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="110" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A110" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B110" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C110" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A111" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B111" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C111" s="1" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A112" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B112" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C112" s="1" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A113" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B113" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C113" s="1" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A114" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B114" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="C114" s="1" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A115" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B115" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="C115" s="1" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A116" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B116" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="C116" s="1" t="s">
         <v>88</v>
-      </c>
-    </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A117" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B117" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="C117" s="1" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A118" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B118" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C118" s="1" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="123" spans="2:2" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B123" s="4" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="124" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A124" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B124" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C124" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A125" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B125" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C125" s="1" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A126" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B126" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C126" s="1" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A127" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B127" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C127" s="1" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A128" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B128" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="C128" s="1" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A129" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B129" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C129" s="1" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A130" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B130" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="C130" s="1" t="s">
-        <v>97</v>
       </c>
     </row>
   </sheetData>

--- a/test.xlsx
+++ b/test.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="98">
   <si>
     <t>Company :</t>
   </si>
@@ -21,6 +21,9 @@
   <si/>
   <si>
     <t>WBS Name</t>
+  </si>
+  <si>
+    <t>Customizations</t>
   </si>
   <si>
     <t>In Scope</t>
@@ -306,7 +309,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5">
+  <fonts count="4">
     <font>
       <color theme="1"/>
       <family val="2"/>
@@ -318,12 +321,6 @@
       <name val="times new roman"/>
     </font>
     <font>
-      <color rgb="000000"/>
-      <family val="2"/>
-      <sz val="14"/>
-      <name val="times new roman"/>
-    </font>
-    <font>
       <color rgb="FFFCFCFC"/>
       <family val="2"/>
       <sz val="14"/>
@@ -332,16 +329,21 @@
     <font>
       <b/>
       <color rgb="000000"/>
-      <sz val="13"/>
+      <sz val="11"/>
       <name val="times new roman"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF016682"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -361,21 +363,20 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -717,967 +718,1032 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C92"/>
+  <dimension ref="A1:C112"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
-    <col min="1" max="1" width="32" style="1" customWidth="1"/>
-    <col min="2" max="2" width="80" style="1" customWidth="1"/>
-    <col min="3" max="3" width="60" style="1" outlineLevel="1" collapsed="1" customWidth="1"/>
+    <col min="1" max="1" width="50" style="1" customWidth="1"/>
+    <col min="2" max="2" width="60" style="1" customWidth="1"/>
+    <col min="3" max="3" width="50" style="1" outlineLevel="1" collapsed="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
+      <c r="C2" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="C4" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="B5" s="4" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+      <c r="C5" s="4" t="s">
         <v>7</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C14" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="9" spans="2:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C11" s="1" t="s">
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B12" s="1" t="s">
+      <c r="C15" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="14" spans="2:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B15" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C21" s="4" t="s">
         <v>7</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>41</v>
+        <v>19</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>14</v>
+        <v>38</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>45</v>
+        <v>19</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>50</v>
+        <v>15</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B41" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C41" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="C41" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="42" spans="2:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B42" s="3" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B43" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C43" s="5" t="s">
-        <v>6</v>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>53</v>
+        <v>19</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B50" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C50" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B51" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C51" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B47" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="C47" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A48" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B48" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C48" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A49" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B49" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C49" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A50" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B50" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="C50" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="51" spans="2:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B51" s="3" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B52" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C52" s="5" t="s">
-        <v>6</v>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="55" spans="2:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B55" s="3" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B56" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C56" s="5" t="s">
-        <v>6</v>
+        <v>57</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>63</v>
+        <v>51</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B61" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C61" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B62" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C62" s="4" t="s">
         <v>7</v>
-      </c>
-      <c r="B58" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C58" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A59" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B59" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C59" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A60" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B60" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C60" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A61" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B61" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C61" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A62" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B62" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C62" s="1" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A64" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B67" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="C67" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B68" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C68" s="4" t="s">
         <v>7</v>
-      </c>
-      <c r="B63" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="C63" s="1" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="64" spans="2:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B64" s="3" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B65" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C65" s="5" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A66" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B66" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C66" s="1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A67" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B67" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C67" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A68" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B68" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C68" s="1" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>75</v>
+        <v>24</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>76</v>
+        <v>64</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>77</v>
+        <v>17</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="71" spans="2:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B71" s="3" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B72" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C72" s="5" t="s">
-        <v>6</v>
+        <v>65</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A71" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A72" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>53</v>
+        <v>19</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>60</v>
+        <v>68</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A75" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B78" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="C78" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B79" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C79" s="4" t="s">
         <v>7</v>
-      </c>
-      <c r="B74" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="C74" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="75" spans="2:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B75" s="3" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B76" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C76" s="5" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A77" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B77" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C77" s="1" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A78" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B78" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C78" s="1" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A79" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B79" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C79" s="1" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>84</v>
+        <v>24</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>85</v>
+        <v>73</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>84</v>
+        <v>37</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>84</v>
+        <v>19</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>88</v>
+        <v>77</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A87" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B87" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="C87" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A88" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B88" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C88" s="4" t="s">
         <v>7</v>
-      </c>
-      <c r="B84" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C84" s="1" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="85" spans="2:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B85" s="3" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B86" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C86" s="5" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A87" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B87" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C87" s="1" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A88" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B88" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C88" s="1" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>23</v>
+        <v>54</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>92</v>
+        <v>61</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C90" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A93" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B93" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="C93" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A94" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B94" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C94" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B90" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="C90" s="1" t="s">
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A95" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B95" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C95" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A96" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B96" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C96" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A97" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B97" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C97" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A98" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B98" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C98" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A99" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C99" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A100" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B100" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C100" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A101" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B101" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C101" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A102" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B102" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C102" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A105" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B105" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="C105" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A106" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B106" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C106" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A107" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B107" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C107" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A108" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B108" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C108" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A109" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B109" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C109" s="1" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A91" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B91" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C91" s="1" t="s">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A110" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B110" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C110" s="1" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A92" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B92" s="1" t="s">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A111" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B111" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C111" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="C92" s="1" t="s">
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A112" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B112" s="1" t="s">
         <v>96</v>
+      </c>
+      <c r="C112" s="1" t="s">
+        <v>97</v>
       </c>
     </row>
   </sheetData>

--- a/test.xlsx
+++ b/test.xlsx
@@ -300,7 +300,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <color theme="1"/>
       <family val="2"/>
@@ -314,8 +314,13 @@
     <font>
       <color rgb="FFFCFCFC"/>
       <family val="2"/>
-      <sz val="14"/>
+      <sz val="11"/>
       <name val="times new roman"/>
+    </font>
+    <font>
+      <b/>
+      <color rgb="FFFCFCFC"/>
+      <sz val="13"/>
     </font>
     <font>
       <b/>
@@ -354,7 +359,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -363,11 +368,14 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -713,9 +721,11 @@
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="1" width="10" style="1" customWidth="1"/>
-    <col min="2" max="2" width="50" style="1" outlineLevel="1" collapsed="1" customWidth="1"/>
-    <col min="3" max="3" width="25" style="1" outlineLevel="1" collapsed="1" customWidth="1"/>
-    <col min="4" max="8" width="15" style="1" customWidth="1"/>
+    <col min="2" max="2" width="36" style="1" outlineLevel="1" collapsed="1" customWidth="1"/>
+    <col min="3" max="3" width="17" style="1" outlineLevel="1" collapsed="1" customWidth="1"/>
+    <col min="4" max="4" width="10" style="1" customWidth="1"/>
+    <col min="5" max="6" width="15" style="1" customWidth="1"/>
+    <col min="7" max="8" width="10" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
@@ -756,13 +766,13 @@
       <c r="C4" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
     </row>
     <row r="5" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4"/>
@@ -817,25 +827,25 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="2:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="6" t="s">
+    <row r="9" spans="2:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="E9" s="6" t="s">
+      <c r="E9" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="H9" s="6" t="s">
+      <c r="H9" s="7" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="2:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="6" t="s">
+    <row r="10" spans="2:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="E10" s="6" t="s">
+      <c r="E10" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="H10" s="6" t="s">
+      <c r="H10" s="7" t="s">
         <v>19</v>
       </c>
     </row>
@@ -849,13 +859,13 @@
       <c r="C13" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D13" s="4" t="s">
+      <c r="D13" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="4"/>
-      <c r="H13" s="4"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
     </row>
     <row r="14" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4"/>
@@ -920,13 +930,13 @@
       <c r="C20" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D20" s="4" t="s">
+      <c r="D20" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E20" s="4"/>
-      <c r="F20" s="4"/>
-      <c r="G20" s="4"/>
-      <c r="H20" s="4"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="5"/>
+      <c r="H20" s="5"/>
     </row>
     <row r="21" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="4"/>
@@ -1244,13 +1254,13 @@
       <c r="C50" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D50" s="4" t="s">
+      <c r="D50" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E50" s="4"/>
-      <c r="F50" s="4"/>
-      <c r="G50" s="4"/>
-      <c r="H50" s="4"/>
+      <c r="E50" s="5"/>
+      <c r="F50" s="5"/>
+      <c r="G50" s="5"/>
+      <c r="H50" s="5"/>
     </row>
     <row r="51" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A51" s="4"/>
@@ -1359,13 +1369,13 @@
       <c r="C61" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D61" s="4" t="s">
+      <c r="D61" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E61" s="4"/>
-      <c r="F61" s="4"/>
-      <c r="G61" s="4"/>
-      <c r="H61" s="4"/>
+      <c r="E61" s="5"/>
+      <c r="F61" s="5"/>
+      <c r="G61" s="5"/>
+      <c r="H61" s="5"/>
     </row>
     <row r="62" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A62" s="4"/>
@@ -1419,13 +1429,13 @@
       <c r="C67" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D67" s="4" t="s">
+      <c r="D67" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E67" s="4"/>
-      <c r="F67" s="4"/>
-      <c r="G67" s="4"/>
-      <c r="H67" s="4"/>
+      <c r="E67" s="5"/>
+      <c r="F67" s="5"/>
+      <c r="G67" s="5"/>
+      <c r="H67" s="5"/>
     </row>
     <row r="68" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A68" s="4"/>
@@ -1534,13 +1544,13 @@
       <c r="C78" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D78" s="4" t="s">
+      <c r="D78" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E78" s="4"/>
-      <c r="F78" s="4"/>
-      <c r="G78" s="4"/>
-      <c r="H78" s="4"/>
+      <c r="E78" s="5"/>
+      <c r="F78" s="5"/>
+      <c r="G78" s="5"/>
+      <c r="H78" s="5"/>
     </row>
     <row r="79" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A79" s="4"/>
@@ -1627,13 +1637,13 @@
       <c r="C87" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D87" s="4" t="s">
+      <c r="D87" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E87" s="4"/>
-      <c r="F87" s="4"/>
-      <c r="G87" s="4"/>
-      <c r="H87" s="4"/>
+      <c r="E87" s="5"/>
+      <c r="F87" s="5"/>
+      <c r="G87" s="5"/>
+      <c r="H87" s="5"/>
     </row>
     <row r="88" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A88" s="4"/>
@@ -1687,13 +1697,13 @@
       <c r="C93" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D93" s="4" t="s">
+      <c r="D93" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E93" s="4"/>
-      <c r="F93" s="4"/>
-      <c r="G93" s="4"/>
-      <c r="H93" s="4"/>
+      <c r="E93" s="5"/>
+      <c r="F93" s="5"/>
+      <c r="G93" s="5"/>
+      <c r="H93" s="5"/>
     </row>
     <row r="94" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A94" s="4"/>
@@ -1813,13 +1823,13 @@
       <c r="C105" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D105" s="4" t="s">
+      <c r="D105" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E105" s="4"/>
-      <c r="F105" s="4"/>
-      <c r="G105" s="4"/>
-      <c r="H105" s="4"/>
+      <c r="E105" s="5"/>
+      <c r="F105" s="5"/>
+      <c r="G105" s="5"/>
+      <c r="H105" s="5"/>
     </row>
     <row r="106" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A106" s="4"/>

--- a/test.xlsx
+++ b/test.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="104">
   <si>
     <t>Company :</t>
   </si>
@@ -22,7 +22,10 @@
     <t>WBS Name</t>
   </si>
   <si>
-    <t>AppleSow 3</t>
+    <t>test</t>
+  </si>
+  <si>
+    <t>sso</t>
   </si>
   <si>
     <t>Line item</t>
@@ -50,15 +53,153 @@
     <t>In Scope</t>
   </si>
   <si>
+    <t>Configure Metadata and Attribute Mapping with SAML 2.0 Client</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Configure SAML 2.0 Client</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>Create Custom SSO Plug-in</t>
+  </si>
+  <si>
+    <t>60</t>
+  </si>
+  <si>
+    <t>Data Migration From Jive to Jive (Per 25000 pices of content)</t>
+  </si>
+  <si>
+    <t>Migrate Users</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>Migrate Places</t>
+  </si>
+  <si>
+    <t>Migrate Jive Documents</t>
+  </si>
+  <si>
+    <t>Migrate Uploaded Documents</t>
+  </si>
+  <si>
+    <t>Migrate Discussions</t>
+  </si>
+  <si>
+    <t>Migrate Questions</t>
+  </si>
+  <si>
+    <t>Migrate Ideas</t>
+  </si>
+  <si>
+    <t>Migrate Polls</t>
+  </si>
+  <si>
+    <t>Migrate Projects</t>
+  </si>
+  <si>
+    <t>Migrate Task</t>
+  </si>
+  <si>
+    <t>Migrate Blogs / Blogpost</t>
+  </si>
+  <si>
+    <t>Migrate Bookmarks</t>
+  </si>
+  <si>
+    <t>Migrate Events</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>Migrate Videos</t>
+  </si>
+  <si>
+    <t>Migrate Ratings</t>
+  </si>
+  <si>
+    <t>Migrate Likes</t>
+  </si>
+  <si>
+    <t>Migrate @ mentions</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>Migrate Categories</t>
+  </si>
+  <si>
+    <t>Migrate Status Updates</t>
+  </si>
+  <si>
+    <t>Customization Plug-ins for Legacy Jive Instances</t>
+  </si>
+  <si>
+    <t>Initial Data Load Sample</t>
+  </si>
+  <si>
+    <t>40</t>
+  </si>
+  <si>
+    <t>QA / Bug Fixes (10 hrs per content type)</t>
+  </si>
+  <si>
+    <t>Dry Run</t>
+  </si>
+  <si>
+    <t>QA / Bug Fixes</t>
+  </si>
+  <si>
+    <t>Go Live</t>
+  </si>
+  <si>
+    <t>Fix Corrupt Data</t>
+  </si>
+  <si>
+    <t>Upgrade</t>
+  </si>
+  <si>
+    <t>Log cases with Jive</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>Dry Run #1</t>
+  </si>
+  <si>
+    <t>QA/ Bug Fixes</t>
+  </si>
+  <si>
+    <t>Dry Run #2</t>
+  </si>
+  <si>
+    <t>Post Upgrade Support</t>
+  </si>
+  <si>
+    <t>Customizations</t>
+  </si>
+  <si>
     <t>Plug-ins</t>
   </si>
   <si>
     <t>FILL IN HOURS</t>
   </si>
   <si>
-    <t>No</t>
-  </si>
-  <si>
     <t>Add-ons</t>
   </si>
   <si>
@@ -68,133 +209,7 @@
     <t>Custom Tiles</t>
   </si>
   <si>
-    <t>Yes</t>
-  </si>
-  <si>
-    <t>Migrate Status Updates</t>
-  </si>
-  <si>
-    <t>Configure Metadata and Attribute Mapping with SAML 2.0 Client</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>Configure SAML 2.0 Client</t>
-  </si>
-  <si>
-    <t>20</t>
-  </si>
-  <si>
-    <t>Create Custom SSO Plug-in</t>
-  </si>
-  <si>
-    <t>60</t>
-  </si>
-  <si>
-    <t>Migrate Users</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>Migrate Places</t>
-  </si>
-  <si>
-    <t>Migrate Jive Documents</t>
-  </si>
-  <si>
-    <t>Migrate Uploaded Documents</t>
-  </si>
-  <si>
-    <t>Migrate Discussions</t>
-  </si>
-  <si>
-    <t>Migrate Questions</t>
-  </si>
-  <si>
-    <t>Migrate Ideas</t>
-  </si>
-  <si>
-    <t>Migrate Polls</t>
-  </si>
-  <si>
-    <t>Migrate Projects</t>
-  </si>
-  <si>
-    <t>Migrate Task</t>
-  </si>
-  <si>
-    <t>Migrate Blogs / Blogpost</t>
-  </si>
-  <si>
-    <t>Migrate Bookmarks</t>
-  </si>
-  <si>
-    <t>Migrate Events</t>
-  </si>
-  <si>
-    <t>25</t>
-  </si>
-  <si>
-    <t>Migrate Videos</t>
-  </si>
-  <si>
-    <t>Migrate Ratings</t>
-  </si>
-  <si>
-    <t>Migrate Likes</t>
-  </si>
-  <si>
-    <t>Migrate @ mentions</t>
-  </si>
-  <si>
-    <t>30</t>
-  </si>
-  <si>
-    <t>Migrate Categories</t>
-  </si>
-  <si>
-    <t>Customization Plug-ins for Legacy Jive Instances</t>
-  </si>
-  <si>
-    <t>Initial Data Load Sample</t>
-  </si>
-  <si>
-    <t>40</t>
-  </si>
-  <si>
-    <t>QA / Bug Fixes (10 hrs per content type)</t>
-  </si>
-  <si>
-    <t>Dry Run</t>
-  </si>
-  <si>
-    <t>QA / Bug Fixes</t>
-  </si>
-  <si>
-    <t>Go Live</t>
-  </si>
-  <si>
-    <t>Fix Corrupt Data</t>
-  </si>
-  <si>
-    <t>Log cases with Jive</t>
-  </si>
-  <si>
-    <t>15</t>
-  </si>
-  <si>
-    <t>Dry Run #1</t>
-  </si>
-  <si>
-    <t>QA/ Bug Fixes</t>
-  </si>
-  <si>
-    <t>Dry Run #2</t>
-  </si>
-  <si>
-    <t>Post Upgrade Support</t>
+    <t>Box for ServiceNow</t>
   </si>
   <si>
     <t>Configure Code for Customer Instance</t>
@@ -203,6 +218,9 @@
     <t>Up to 15 hours to install and configure on Sandbox and Prod</t>
   </si>
   <si>
+    <t>Strategy</t>
+  </si>
+  <si>
     <t>Custom Development Assesment</t>
   </si>
   <si>
@@ -227,6 +245,9 @@
     <t>50</t>
   </si>
   <si>
+    <t>Gamification</t>
+  </si>
+  <si>
     <t>Configure Nitro Console</t>
   </si>
   <si>
@@ -246,6 +267,12 @@
   </si>
   <si>
     <t>2</t>
+  </si>
+  <si>
+    <t>Box for SFDC</t>
+  </si>
+  <si>
+    <t>Training / Documentation</t>
   </si>
   <si>
     <t>Custom Development Training</t>
@@ -300,7 +327,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <color theme="1"/>
       <family val="2"/>
@@ -316,6 +343,10 @@
       <family val="2"/>
       <sz val="11"/>
       <name val="times new roman"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
     </font>
     <font>
       <b/>
@@ -359,7 +390,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -367,15 +398,18 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -722,10 +756,11 @@
   <cols>
     <col min="1" max="1" width="10" style="1" customWidth="1"/>
     <col min="2" max="2" width="36" style="1" outlineLevel="1" collapsed="1" customWidth="1"/>
-    <col min="3" max="3" width="17" style="1" outlineLevel="1" collapsed="1" customWidth="1"/>
-    <col min="4" max="4" width="10" style="1" customWidth="1"/>
+    <col min="3" max="3" width="20" style="1" outlineLevel="1" collapsed="1" customWidth="1"/>
+    <col min="4" max="4" width="11" style="1" customWidth="1"/>
     <col min="5" max="6" width="15" style="1" customWidth="1"/>
-    <col min="7" max="8" width="10" style="1" customWidth="1"/>
+    <col min="7" max="7" width="11" style="1" customWidth="1"/>
+    <col min="8" max="8" width="10" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
@@ -756,1165 +791,1641 @@
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
     </row>
-    <row r="4" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
+    <row r="3" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" s="4" t="s">
+    </row>
+    <row r="4" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="C4" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5"/>
-    </row>
-    <row r="5" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="4"/>
-      <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4" t="s">
+      <c r="D4" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="6"/>
+    </row>
+    <row r="5" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="5"/>
+      <c r="B5" s="5"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="F5" s="4" t="s">
+      <c r="E5" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="G5" s="4" t="s">
+      <c r="F5" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="H5" s="4" t="s">
+      <c r="G5" s="5" t="s">
         <v>12</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="1">
+        <v>5</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G6" s="1">
+        <v>25</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="8">
+        <v>5</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G7" s="8">
+        <v>100</v>
+      </c>
+      <c r="H7" s="8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" s="8">
+        <v>5</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="G8" s="8">
+        <v>300</v>
+      </c>
+      <c r="H8" s="8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C10" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
+    </row>
+    <row r="12" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="5"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H12" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="E6" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B7" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B8" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" spans="2:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="H9" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="10" spans="2:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="H10" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="5"/>
-    </row>
-    <row r="14" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="4"/>
-      <c r="B14" s="4"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E14" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F14" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="G14" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="H14" s="4" t="s">
-        <v>12</v>
+    </row>
+    <row r="13" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B13" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" s="1">
+        <v>5</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G13" s="1">
+        <v>50</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B14" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" s="1">
+        <v>5</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G14" s="1">
+        <v>50</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B15" s="1" t="s">
-        <v>21</v>
+        <v>26</v>
+      </c>
+      <c r="C15" s="1">
+        <v>5</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
+      </c>
+      <c r="G15" s="1">
+        <v>50</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B16" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
+      </c>
+      <c r="C16" s="1">
+        <v>5</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>24</v>
       </c>
+      <c r="G16" s="1">
+        <v>50</v>
+      </c>
       <c r="H16" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B17" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
+      </c>
+      <c r="C17" s="1">
+        <v>5</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>26</v>
+        <v>18</v>
+      </c>
+      <c r="G17" s="1">
+        <v>100</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B20" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D20" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E20" s="5"/>
-      <c r="F20" s="5"/>
-      <c r="G20" s="5"/>
-      <c r="H20" s="5"/>
-    </row>
-    <row r="21" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="4"/>
-      <c r="B21" s="4"/>
-      <c r="C21" s="4"/>
-      <c r="D21" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E21" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F21" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="G21" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="H21" s="4" t="s">
-        <v>12</v>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B18" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C18" s="1">
+        <v>5</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G18" s="1">
+        <v>100</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B19" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C19" s="1">
+        <v>5</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G19" s="1">
+        <v>100</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B20" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C20" s="1">
+        <v>5</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G20" s="1">
+        <v>100</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B21" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C21" s="1">
+        <v>5</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G21" s="1">
+        <v>50</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="22" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B22" s="1" t="s">
-        <v>27</v>
+        <v>33</v>
+      </c>
+      <c r="C22" s="1">
+        <v>5</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
+      </c>
+      <c r="G22" s="1">
+        <v>50</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B23" s="1" t="s">
-        <v>29</v>
+        <v>34</v>
+      </c>
+      <c r="C23" s="1">
+        <v>5</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>28</v>
+        <v>18</v>
+      </c>
+      <c r="G23" s="1">
+        <v>100</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B24" s="1" t="s">
-        <v>30</v>
+        <v>35</v>
+      </c>
+      <c r="C24" s="1">
+        <v>5</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
+      </c>
+      <c r="G24" s="1">
+        <v>50</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B25" s="1" t="s">
-        <v>31</v>
+        <v>36</v>
+      </c>
+      <c r="C25" s="1">
+        <v>5</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>28</v>
+        <v>37</v>
+      </c>
+      <c r="G25" s="1">
+        <v>125</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B26" s="1" t="s">
-        <v>32</v>
+        <v>38</v>
+      </c>
+      <c r="C26" s="1">
+        <v>5</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>24</v>
+        <v>37</v>
+      </c>
+      <c r="G26" s="1">
+        <v>125</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B27" s="1" t="s">
-        <v>33</v>
+        <v>39</v>
+      </c>
+      <c r="C27" s="1">
+        <v>5</v>
       </c>
       <c r="E27" s="1" t="s">
         <v>24</v>
       </c>
+      <c r="G27" s="1">
+        <v>50</v>
+      </c>
       <c r="H27" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B28" s="1" t="s">
-        <v>34</v>
+        <v>40</v>
+      </c>
+      <c r="C28" s="1">
+        <v>5</v>
       </c>
       <c r="E28" s="1" t="s">
         <v>24</v>
       </c>
+      <c r="G28" s="1">
+        <v>50</v>
+      </c>
       <c r="H28" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B29" s="1" t="s">
-        <v>35</v>
+        <v>41</v>
+      </c>
+      <c r="C29" s="1">
+        <v>5</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>24</v>
+        <v>42</v>
+      </c>
+      <c r="G29" s="1">
+        <v>150</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="30" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B30" s="1" t="s">
-        <v>36</v>
+        <v>43</v>
+      </c>
+      <c r="C30" s="1">
+        <v>5</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
+      </c>
+      <c r="G30" s="1">
+        <v>50</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B31" s="1" t="s">
-        <v>37</v>
+        <v>44</v>
+      </c>
+      <c r="C31" s="1">
+        <v>5</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>28</v>
+        <v>18</v>
+      </c>
+      <c r="G31" s="1">
+        <v>100</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="32" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B32" s="1" t="s">
-        <v>38</v>
+        <v>45</v>
+      </c>
+      <c r="C32" s="1">
+        <v>5</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
+      </c>
+      <c r="G32" s="1">
+        <v>300</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="33" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B33" s="1" t="s">
-        <v>39</v>
+        <v>46</v>
+      </c>
+      <c r="C33" s="1">
+        <v>5</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>28</v>
+        <v>47</v>
+      </c>
+      <c r="G33" s="1">
+        <v>200</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="34" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B34" s="1" t="s">
-        <v>40</v>
+        <v>48</v>
+      </c>
+      <c r="C34" s="1">
+        <v>5</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>41</v>
+        <v>21</v>
+      </c>
+      <c r="G34" s="1">
+        <v>300</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="35" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B35" s="1" t="s">
-        <v>42</v>
+        <v>49</v>
+      </c>
+      <c r="C35" s="1">
+        <v>5</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>41</v>
+        <v>18</v>
+      </c>
+      <c r="G35" s="1">
+        <v>100</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="36" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B36" s="1" t="s">
-        <v>43</v>
+        <v>50</v>
+      </c>
+      <c r="C36" s="1">
+        <v>5</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>28</v>
+        <v>47</v>
+      </c>
+      <c r="G36" s="1">
+        <v>200</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="37" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B37" s="1" t="s">
-        <v>44</v>
+        <v>51</v>
+      </c>
+      <c r="C37" s="1">
+        <v>5</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>28</v>
+        <v>47</v>
+      </c>
+      <c r="G37" s="1">
+        <v>200</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="38" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B38" s="1" t="s">
-        <v>45</v>
+        <v>52</v>
+      </c>
+      <c r="C38" s="1">
+        <v>5</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
+      </c>
+      <c r="G38" s="1">
+        <v>200</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="39" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B39" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="E39" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="H39" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="40" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B40" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E40" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="H40" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="41" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B41" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E41" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="H41" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="42" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B42" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="E42" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="H42" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="40" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C40" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B41" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C41" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D41" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E41" s="6"/>
+      <c r="F41" s="6"/>
+      <c r="G41" s="6"/>
+      <c r="H41" s="6"/>
+    </row>
+    <row r="42" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="5"/>
+      <c r="B42" s="5"/>
+      <c r="C42" s="5"/>
+      <c r="D42" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E42" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F42" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G42" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H42" s="5" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="43" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B43" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
+      </c>
+      <c r="C43" s="1">
+        <v>5</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>26</v>
+        <v>55</v>
+      </c>
+      <c r="G43" s="1">
+        <v>75</v>
       </c>
       <c r="H43" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="44" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B44" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
+      </c>
+      <c r="C44" s="1">
+        <v>5</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>24</v>
+        <v>55</v>
+      </c>
+      <c r="G44" s="1">
+        <v>75</v>
       </c>
       <c r="H44" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="45" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B45" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
+      </c>
+      <c r="C45" s="1">
+        <v>5</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>50</v>
+        <v>55</v>
+      </c>
+      <c r="G45" s="1">
+        <v>75</v>
       </c>
       <c r="H45" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="46" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B46" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
+      </c>
+      <c r="C46" s="1">
+        <v>5</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>50</v>
+        <v>55</v>
+      </c>
+      <c r="G46" s="1">
+        <v>75</v>
       </c>
       <c r="H46" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="47" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B47" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C47" s="1">
+        <v>5</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G47" s="1">
+        <v>50</v>
+      </c>
+      <c r="H47" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="48" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B48" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C48" s="1">
+        <v>5</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G48" s="1">
+        <v>100</v>
+      </c>
+      <c r="H48" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="49" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B49" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C49" s="1">
+        <v>5</v>
+      </c>
+      <c r="E49" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="E47" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="H47" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B50" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C50" s="4" t="s">
+      <c r="G49" s="1">
+        <v>75</v>
+      </c>
+      <c r="H49" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="51" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C51" s="3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B52" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D50" s="5" t="s">
+      <c r="C52" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E50" s="5"/>
-      <c r="F50" s="5"/>
-      <c r="G50" s="5"/>
-      <c r="H50" s="5"/>
-    </row>
-    <row r="51" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="4"/>
-      <c r="B51" s="4"/>
-      <c r="C51" s="4"/>
-      <c r="D51" s="4" t="s">
+      <c r="D52" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="E51" s="4" t="s">
+      <c r="E52" s="6"/>
+      <c r="F52" s="6"/>
+      <c r="G52" s="6"/>
+      <c r="H52" s="6"/>
+    </row>
+    <row r="53" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="5"/>
+      <c r="B53" s="5"/>
+      <c r="C53" s="5"/>
+      <c r="D53" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="F51" s="4" t="s">
+      <c r="E53" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="G51" s="4" t="s">
+      <c r="F53" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="H51" s="4" t="s">
+      <c r="G53" s="5" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="52" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B52" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="E52" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="H52" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="53" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B53" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="E53" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="H53" s="1" t="s">
-        <v>15</v>
+      <c r="H53" s="5" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="54" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B54" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
+      </c>
+      <c r="C54" s="1">
+        <v>5</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>57</v>
+        <v>62</v>
+      </c>
+      <c r="G54" s="1">
+        <v>NaN</v>
       </c>
       <c r="H54" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="55" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B55" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
+      </c>
+      <c r="C55" s="1">
+        <v>5</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>57</v>
+        <v>62</v>
+      </c>
+      <c r="G55" s="1">
+        <v>NaN</v>
       </c>
       <c r="H55" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="56" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B56" s="1" t="s">
-        <v>59</v>
+        <v>64</v>
+      </c>
+      <c r="C56" s="1">
+        <v>5</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>28</v>
+        <v>62</v>
+      </c>
+      <c r="G56" s="1">
+        <v>NaN</v>
       </c>
       <c r="H56" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="57" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B57" s="1" t="s">
-        <v>54</v>
+        <v>65</v>
+      </c>
+      <c r="C57" s="1">
+        <v>5</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>24</v>
+        <v>62</v>
+      </c>
+      <c r="G57" s="1">
+        <v>NaN</v>
       </c>
       <c r="H57" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="58" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B58" s="1" t="s">
-        <v>61</v>
+        <v>44</v>
+      </c>
+      <c r="C58" s="1">
+        <v>5</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>57</v>
+        <v>62</v>
+      </c>
+      <c r="G58" s="1">
+        <v>NaN</v>
       </c>
       <c r="H58" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B61" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C61" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="60" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C60" s="3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B61" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D61" s="5" t="s">
+      <c r="C61" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E61" s="5"/>
-      <c r="F61" s="5"/>
-      <c r="G61" s="5"/>
-      <c r="H61" s="5"/>
-    </row>
-    <row r="62" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="4"/>
-      <c r="B62" s="4"/>
-      <c r="C62" s="4"/>
-      <c r="D62" s="4" t="s">
+      <c r="D61" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="E62" s="4" t="s">
+      <c r="E61" s="6"/>
+      <c r="F61" s="6"/>
+      <c r="G61" s="6"/>
+      <c r="H61" s="6"/>
+    </row>
+    <row r="62" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="5"/>
+      <c r="B62" s="5"/>
+      <c r="C62" s="5"/>
+      <c r="D62" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="F62" s="4" t="s">
+      <c r="E62" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="G62" s="4" t="s">
+      <c r="F62" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="H62" s="4" t="s">
+      <c r="G62" s="5" t="s">
         <v>12</v>
+      </c>
+      <c r="H62" s="5" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="63" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B63" s="1" t="s">
-        <v>62</v>
+        <v>67</v>
+      </c>
+      <c r="C63" s="1">
+        <v>5</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
+      </c>
+      <c r="G63" s="1">
+        <v>75</v>
       </c>
       <c r="H63" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="64" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B64" s="1" t="s">
-        <v>63</v>
+        <v>68</v>
+      </c>
+      <c r="C64" s="1">
+        <v>5</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
+      </c>
+      <c r="G64" s="1">
+        <v>75</v>
       </c>
       <c r="H64" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B67" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C67" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="66" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C66" s="3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B67" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D67" s="5" t="s">
+      <c r="C67" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E67" s="5"/>
-      <c r="F67" s="5"/>
-      <c r="G67" s="5"/>
-      <c r="H67" s="5"/>
-    </row>
-    <row r="68" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="4"/>
-      <c r="B68" s="4"/>
-      <c r="C68" s="4"/>
-      <c r="D68" s="4" t="s">
+      <c r="D67" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="E68" s="4" t="s">
+      <c r="E67" s="6"/>
+      <c r="F67" s="6"/>
+      <c r="G67" s="6"/>
+      <c r="H67" s="6"/>
+    </row>
+    <row r="68" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="5"/>
+      <c r="B68" s="5"/>
+      <c r="C68" s="5"/>
+      <c r="D68" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="F68" s="4" t="s">
+      <c r="E68" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="G68" s="4" t="s">
+      <c r="F68" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="H68" s="4" t="s">
+      <c r="G68" s="5" t="s">
         <v>12</v>
+      </c>
+      <c r="H68" s="5" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="69" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B69" s="1" t="s">
-        <v>64</v>
+        <v>70</v>
+      </c>
+      <c r="C69" s="1">
+        <v>5</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
+      </c>
+      <c r="G69" s="1">
+        <v>50</v>
       </c>
       <c r="H69" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="70" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B70" s="1" t="s">
-        <v>65</v>
+        <v>71</v>
+      </c>
+      <c r="C70" s="1">
+        <v>5</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>22</v>
+        <v>15</v>
+      </c>
+      <c r="G70" s="1">
+        <v>25</v>
       </c>
       <c r="H70" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="71" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B71" s="1" t="s">
-        <v>66</v>
+        <v>72</v>
+      </c>
+      <c r="C71" s="1">
+        <v>5</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>24</v>
+        <v>18</v>
+      </c>
+      <c r="G71" s="1">
+        <v>100</v>
       </c>
       <c r="H71" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="72" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B72" s="1" t="s">
-        <v>67</v>
+        <v>73</v>
+      </c>
+      <c r="C72" s="1">
+        <v>5</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>22</v>
+        <v>15</v>
+      </c>
+      <c r="G72" s="1">
+        <v>25</v>
       </c>
       <c r="H72" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="73" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B73" s="1" t="s">
-        <v>68</v>
+        <v>74</v>
+      </c>
+      <c r="C73" s="1">
+        <v>5</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>24</v>
+        <v>18</v>
+      </c>
+      <c r="G73" s="1">
+        <v>100</v>
       </c>
       <c r="H73" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="74" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B74" s="1" t="s">
-        <v>69</v>
+        <v>75</v>
+      </c>
+      <c r="C74" s="1">
+        <v>5</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
+      </c>
+      <c r="G74" s="1">
+        <v>50</v>
       </c>
       <c r="H74" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="75" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B75" s="1" t="s">
-        <v>70</v>
+        <v>76</v>
+      </c>
+      <c r="C75" s="1">
+        <v>5</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>71</v>
+        <v>77</v>
+      </c>
+      <c r="G75" s="1">
+        <v>250</v>
       </c>
       <c r="H75" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B78" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C78" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="77" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C77" s="3" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B78" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D78" s="5" t="s">
+      <c r="C78" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E78" s="5"/>
-      <c r="F78" s="5"/>
-      <c r="G78" s="5"/>
-      <c r="H78" s="5"/>
-    </row>
-    <row r="79" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="4"/>
-      <c r="B79" s="4"/>
-      <c r="C79" s="4"/>
-      <c r="D79" s="4" t="s">
+      <c r="D78" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="E79" s="4" t="s">
+      <c r="E78" s="6"/>
+      <c r="F78" s="6"/>
+      <c r="G78" s="6"/>
+      <c r="H78" s="6"/>
+    </row>
+    <row r="79" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="5"/>
+      <c r="B79" s="5"/>
+      <c r="C79" s="5"/>
+      <c r="D79" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="F79" s="4" t="s">
+      <c r="E79" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="G79" s="4" t="s">
+      <c r="F79" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="H79" s="4" t="s">
+      <c r="G79" s="5" t="s">
         <v>12</v>
+      </c>
+      <c r="H79" s="5" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="80" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B80" s="1" t="s">
-        <v>72</v>
+        <v>79</v>
+      </c>
+      <c r="C80" s="1">
+        <v>5</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
+      </c>
+      <c r="G80" s="1">
+        <v>50</v>
       </c>
       <c r="H80" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="81" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B81" s="1" t="s">
-        <v>73</v>
+        <v>80</v>
+      </c>
+      <c r="C81" s="1">
+        <v>5</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>41</v>
+        <v>37</v>
+      </c>
+      <c r="G81" s="1">
+        <v>125</v>
       </c>
       <c r="H81" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="82" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B82" s="1" t="s">
-        <v>74</v>
+        <v>81</v>
+      </c>
+      <c r="C82" s="1">
+        <v>5</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>24</v>
+        <v>18</v>
+      </c>
+      <c r="G82" s="1">
+        <v>100</v>
       </c>
       <c r="H82" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="83" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B83" s="1" t="s">
-        <v>75</v>
+        <v>82</v>
+      </c>
+      <c r="C83" s="1">
+        <v>5</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>76</v>
+        <v>83</v>
+      </c>
+      <c r="G83" s="1">
+        <v>20</v>
       </c>
       <c r="H83" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="84" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B84" s="1" t="s">
-        <v>77</v>
+        <v>84</v>
+      </c>
+      <c r="C84" s="1">
+        <v>5</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>78</v>
+        <v>85</v>
+      </c>
+      <c r="G84" s="1">
+        <v>10</v>
       </c>
       <c r="H84" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B87" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C87" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="86" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C86" s="3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A87" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B87" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D87" s="5" t="s">
+      <c r="C87" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E87" s="5"/>
-      <c r="F87" s="5"/>
-      <c r="G87" s="5"/>
-      <c r="H87" s="5"/>
-    </row>
-    <row r="88" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="4"/>
-      <c r="B88" s="4"/>
-      <c r="C88" s="4"/>
-      <c r="D88" s="4" t="s">
+      <c r="D87" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="E88" s="4" t="s">
+      <c r="E87" s="6"/>
+      <c r="F87" s="6"/>
+      <c r="G87" s="6"/>
+      <c r="H87" s="6"/>
+    </row>
+    <row r="88" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A88" s="5"/>
+      <c r="B88" s="5"/>
+      <c r="C88" s="5"/>
+      <c r="D88" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="F88" s="4" t="s">
+      <c r="E88" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="G88" s="4" t="s">
+      <c r="F88" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="H88" s="4" t="s">
+      <c r="G88" s="5" t="s">
         <v>12</v>
+      </c>
+      <c r="H88" s="5" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="89" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B89" s="1" t="s">
-        <v>62</v>
+        <v>67</v>
+      </c>
+      <c r="C89" s="1">
+        <v>5</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
+      </c>
+      <c r="G89" s="1">
+        <v>75</v>
       </c>
       <c r="H89" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="90" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B90" s="1" t="s">
-        <v>63</v>
+        <v>68</v>
+      </c>
+      <c r="C90" s="1">
+        <v>5</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
+      </c>
+      <c r="G90" s="1">
+        <v>75</v>
       </c>
       <c r="H90" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B93" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C93" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="92" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C92" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A93" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B93" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D93" s="5" t="s">
+      <c r="C93" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E93" s="5"/>
-      <c r="F93" s="5"/>
-      <c r="G93" s="5"/>
-      <c r="H93" s="5"/>
-    </row>
-    <row r="94" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="4"/>
-      <c r="B94" s="4"/>
-      <c r="C94" s="4"/>
-      <c r="D94" s="4" t="s">
+      <c r="D93" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="E94" s="4" t="s">
+      <c r="E93" s="6"/>
+      <c r="F93" s="6"/>
+      <c r="G93" s="6"/>
+      <c r="H93" s="6"/>
+    </row>
+    <row r="94" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A94" s="5"/>
+      <c r="B94" s="5"/>
+      <c r="C94" s="5"/>
+      <c r="D94" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="F94" s="4" t="s">
+      <c r="E94" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="G94" s="4" t="s">
+      <c r="F94" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="H94" s="4" t="s">
+      <c r="G94" s="5" t="s">
         <v>12</v>
+      </c>
+      <c r="H94" s="5" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="95" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B95" s="1" t="s">
-        <v>79</v>
+        <v>88</v>
+      </c>
+      <c r="C95" s="1">
+        <v>5</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
+      </c>
+      <c r="G95" s="1">
+        <v>50</v>
       </c>
       <c r="H95" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="96" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B96" s="1" t="s">
-        <v>80</v>
+        <v>89</v>
+      </c>
+      <c r="C96" s="1">
+        <v>5</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>22</v>
+        <v>15</v>
+      </c>
+      <c r="G96" s="1">
+        <v>25</v>
       </c>
       <c r="H96" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="97" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B97" s="1" t="s">
-        <v>81</v>
+        <v>90</v>
+      </c>
+      <c r="C97" s="1">
+        <v>5</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>22</v>
+        <v>15</v>
+      </c>
+      <c r="G97" s="1">
+        <v>25</v>
       </c>
       <c r="H97" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="98" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B98" s="1" t="s">
-        <v>82</v>
+        <v>91</v>
+      </c>
+      <c r="C98" s="1">
+        <v>5</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>83</v>
+        <v>92</v>
+      </c>
+      <c r="G98" s="1">
+        <v>15</v>
       </c>
       <c r="H98" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="99" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B99" s="1" t="s">
-        <v>84</v>
+        <v>93</v>
+      </c>
+      <c r="C99" s="1">
+        <v>5</v>
       </c>
       <c r="E99" s="1" t="s">
-        <v>83</v>
+        <v>92</v>
+      </c>
+      <c r="G99" s="1">
+        <v>15</v>
       </c>
       <c r="H99" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="100" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B100" s="1" t="s">
-        <v>85</v>
+        <v>94</v>
+      </c>
+      <c r="C100" s="1">
+        <v>5</v>
       </c>
       <c r="E100" s="1" t="s">
-        <v>83</v>
+        <v>92</v>
+      </c>
+      <c r="G100" s="1">
+        <v>15</v>
       </c>
       <c r="H100" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="101" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B101" s="1" t="s">
-        <v>86</v>
+        <v>95</v>
+      </c>
+      <c r="C101" s="1">
+        <v>5</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>83</v>
+        <v>92</v>
+      </c>
+      <c r="G101" s="1">
+        <v>15</v>
       </c>
       <c r="H101" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="102" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B102" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C102" s="1">
+        <v>5</v>
+      </c>
+      <c r="E102" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G102" s="1">
+        <v>50</v>
+      </c>
+      <c r="H102" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="104" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C104" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="E102" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="H102" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="105" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A105" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B105" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C105" s="4" t="s">
+    </row>
+    <row r="105" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A105" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B105" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D105" s="5" t="s">
+      <c r="C105" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E105" s="5"/>
-      <c r="F105" s="5"/>
-      <c r="G105" s="5"/>
-      <c r="H105" s="5"/>
-    </row>
-    <row r="106" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A106" s="4"/>
-      <c r="B106" s="4"/>
-      <c r="C106" s="4"/>
-      <c r="D106" s="4" t="s">
+      <c r="D105" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="E106" s="4" t="s">
+      <c r="E105" s="6"/>
+      <c r="F105" s="6"/>
+      <c r="G105" s="6"/>
+      <c r="H105" s="6"/>
+    </row>
+    <row r="106" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A106" s="5"/>
+      <c r="B106" s="5"/>
+      <c r="C106" s="5"/>
+      <c r="D106" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="F106" s="4" t="s">
+      <c r="E106" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="G106" s="4" t="s">
+      <c r="F106" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="H106" s="4" t="s">
+      <c r="G106" s="5" t="s">
         <v>12</v>
+      </c>
+      <c r="H106" s="5" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="107" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B107" s="1" t="s">
-        <v>88</v>
+        <v>97</v>
+      </c>
+      <c r="C107" s="1">
+        <v>5</v>
       </c>
       <c r="E107" s="1" t="s">
-        <v>26</v>
+        <v>21</v>
+      </c>
+      <c r="G107" s="1">
+        <v>300</v>
       </c>
       <c r="H107" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="108" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B108" s="1" t="s">
-        <v>89</v>
+        <v>98</v>
+      </c>
+      <c r="C108" s="1">
+        <v>5</v>
       </c>
       <c r="E108" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
+      </c>
+      <c r="G108" s="1">
+        <v>50</v>
       </c>
       <c r="H108" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="109" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B109" s="1" t="s">
-        <v>90</v>
+        <v>99</v>
+      </c>
+      <c r="C109" s="1">
+        <v>5</v>
       </c>
       <c r="E109" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
+      </c>
+      <c r="G109" s="1">
+        <v>50</v>
       </c>
       <c r="H109" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="110" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B110" s="1" t="s">
-        <v>91</v>
+        <v>100</v>
+      </c>
+      <c r="C110" s="1">
+        <v>5</v>
       </c>
       <c r="E110" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
+      </c>
+      <c r="G110" s="1">
+        <v>200</v>
       </c>
       <c r="H110" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="111" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B111" s="1" t="s">
-        <v>92</v>
+        <v>101</v>
+      </c>
+      <c r="C111" s="1">
+        <v>5</v>
       </c>
       <c r="E111" s="1" t="s">
-        <v>24</v>
+        <v>18</v>
+      </c>
+      <c r="G111" s="1">
+        <v>100</v>
       </c>
       <c r="H111" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="112" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B112" s="1" t="s">
-        <v>93</v>
+        <v>102</v>
+      </c>
+      <c r="C112" s="1">
+        <v>5</v>
       </c>
       <c r="E112" s="1" t="s">
-        <v>94</v>
+        <v>103</v>
+      </c>
+      <c r="G112" s="1">
+        <v>NaN</v>
       </c>
       <c r="H112" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -1925,18 +2436,18 @@
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="B4:B5"/>
     <mergeCell ref="C4:C5"/>
-    <mergeCell ref="D13:H13"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="D20:H20"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="D50:H50"/>
-    <mergeCell ref="A50:A51"/>
-    <mergeCell ref="B50:B51"/>
-    <mergeCell ref="C50:C51"/>
+    <mergeCell ref="D11:H11"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="D41:H41"/>
+    <mergeCell ref="A41:A42"/>
+    <mergeCell ref="B41:B42"/>
+    <mergeCell ref="C41:C42"/>
+    <mergeCell ref="D52:H52"/>
+    <mergeCell ref="A52:A53"/>
+    <mergeCell ref="B52:B53"/>
+    <mergeCell ref="C52:C53"/>
     <mergeCell ref="D61:H61"/>
     <mergeCell ref="A61:A62"/>
     <mergeCell ref="B61:B62"/>

--- a/test.xlsx
+++ b/test.xlsx
@@ -839,13 +839,13 @@
         <v>14</v>
       </c>
       <c r="C6" s="1">
-        <v>5</v>
+        <v>233</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>15</v>
       </c>
       <c r="G6" s="1">
-        <v>25</v>
+        <v>1165</v>
       </c>
       <c r="H6" s="1" t="s">
         <v>16</v>
@@ -856,13 +856,13 @@
         <v>17</v>
       </c>
       <c r="C7" s="8">
-        <v>5</v>
+        <v>233</v>
       </c>
       <c r="E7" s="8" t="s">
         <v>18</v>
       </c>
       <c r="G7" s="8">
-        <v>100</v>
+        <v>4660</v>
       </c>
       <c r="H7" s="8" t="s">
         <v>19</v>
@@ -873,13 +873,13 @@
         <v>20</v>
       </c>
       <c r="C8" s="8">
-        <v>5</v>
+        <v>233</v>
       </c>
       <c r="E8" s="8" t="s">
         <v>21</v>
       </c>
       <c r="G8" s="8">
-        <v>300</v>
+        <v>13980</v>
       </c>
       <c r="H8" s="8" t="s">
         <v>19</v>
@@ -933,13 +933,13 @@
         <v>23</v>
       </c>
       <c r="C13" s="1">
-        <v>5</v>
+        <v>233</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>24</v>
       </c>
       <c r="G13" s="1">
-        <v>50</v>
+        <v>2330</v>
       </c>
       <c r="H13" s="1" t="s">
         <v>16</v>
@@ -950,13 +950,13 @@
         <v>25</v>
       </c>
       <c r="C14" s="1">
-        <v>5</v>
+        <v>233</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>24</v>
       </c>
       <c r="G14" s="1">
-        <v>50</v>
+        <v>2330</v>
       </c>
       <c r="H14" s="1" t="s">
         <v>16</v>
@@ -967,13 +967,13 @@
         <v>26</v>
       </c>
       <c r="C15" s="1">
-        <v>5</v>
+        <v>233</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>24</v>
       </c>
       <c r="G15" s="1">
-        <v>50</v>
+        <v>2330</v>
       </c>
       <c r="H15" s="1" t="s">
         <v>16</v>
@@ -984,13 +984,13 @@
         <v>27</v>
       </c>
       <c r="C16" s="1">
-        <v>5</v>
+        <v>233</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>24</v>
       </c>
       <c r="G16" s="1">
-        <v>50</v>
+        <v>2330</v>
       </c>
       <c r="H16" s="1" t="s">
         <v>16</v>
@@ -1001,13 +1001,13 @@
         <v>28</v>
       </c>
       <c r="C17" s="1">
-        <v>5</v>
+        <v>233</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>18</v>
       </c>
       <c r="G17" s="1">
-        <v>100</v>
+        <v>4660</v>
       </c>
       <c r="H17" s="1" t="s">
         <v>16</v>
@@ -1018,13 +1018,13 @@
         <v>29</v>
       </c>
       <c r="C18" s="1">
-        <v>5</v>
+        <v>233</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>18</v>
       </c>
       <c r="G18" s="1">
-        <v>100</v>
+        <v>4660</v>
       </c>
       <c r="H18" s="1" t="s">
         <v>16</v>
@@ -1035,13 +1035,13 @@
         <v>30</v>
       </c>
       <c r="C19" s="1">
-        <v>5</v>
+        <v>233</v>
       </c>
       <c r="E19" s="1" t="s">
         <v>18</v>
       </c>
       <c r="G19" s="1">
-        <v>100</v>
+        <v>4660</v>
       </c>
       <c r="H19" s="1" t="s">
         <v>16</v>
@@ -1052,13 +1052,13 @@
         <v>31</v>
       </c>
       <c r="C20" s="1">
-        <v>5</v>
+        <v>233</v>
       </c>
       <c r="E20" s="1" t="s">
         <v>18</v>
       </c>
       <c r="G20" s="1">
-        <v>100</v>
+        <v>4660</v>
       </c>
       <c r="H20" s="1" t="s">
         <v>16</v>
@@ -1069,13 +1069,13 @@
         <v>32</v>
       </c>
       <c r="C21" s="1">
-        <v>5</v>
+        <v>233</v>
       </c>
       <c r="E21" s="1" t="s">
         <v>24</v>
       </c>
       <c r="G21" s="1">
-        <v>50</v>
+        <v>2330</v>
       </c>
       <c r="H21" s="1" t="s">
         <v>16</v>
@@ -1086,13 +1086,13 @@
         <v>33</v>
       </c>
       <c r="C22" s="1">
-        <v>5</v>
+        <v>233</v>
       </c>
       <c r="E22" s="1" t="s">
         <v>24</v>
       </c>
       <c r="G22" s="1">
-        <v>50</v>
+        <v>2330</v>
       </c>
       <c r="H22" s="1" t="s">
         <v>16</v>
@@ -1103,13 +1103,13 @@
         <v>34</v>
       </c>
       <c r="C23" s="1">
-        <v>5</v>
+        <v>233</v>
       </c>
       <c r="E23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="G23" s="1">
-        <v>100</v>
+        <v>4660</v>
       </c>
       <c r="H23" s="1" t="s">
         <v>16</v>
@@ -1120,13 +1120,13 @@
         <v>35</v>
       </c>
       <c r="C24" s="1">
-        <v>5</v>
+        <v>233</v>
       </c>
       <c r="E24" s="1" t="s">
         <v>24</v>
       </c>
       <c r="G24" s="1">
-        <v>50</v>
+        <v>2330</v>
       </c>
       <c r="H24" s="1" t="s">
         <v>16</v>
@@ -1137,13 +1137,13 @@
         <v>36</v>
       </c>
       <c r="C25" s="1">
-        <v>5</v>
+        <v>233</v>
       </c>
       <c r="E25" s="1" t="s">
         <v>37</v>
       </c>
       <c r="G25" s="1">
-        <v>125</v>
+        <v>5825</v>
       </c>
       <c r="H25" s="1" t="s">
         <v>16</v>
@@ -1154,13 +1154,13 @@
         <v>38</v>
       </c>
       <c r="C26" s="1">
-        <v>5</v>
+        <v>233</v>
       </c>
       <c r="E26" s="1" t="s">
         <v>37</v>
       </c>
       <c r="G26" s="1">
-        <v>125</v>
+        <v>5825</v>
       </c>
       <c r="H26" s="1" t="s">
         <v>16</v>
@@ -1171,13 +1171,13 @@
         <v>39</v>
       </c>
       <c r="C27" s="1">
-        <v>5</v>
+        <v>233</v>
       </c>
       <c r="E27" s="1" t="s">
         <v>24</v>
       </c>
       <c r="G27" s="1">
-        <v>50</v>
+        <v>2330</v>
       </c>
       <c r="H27" s="1" t="s">
         <v>16</v>
@@ -1188,13 +1188,13 @@
         <v>40</v>
       </c>
       <c r="C28" s="1">
-        <v>5</v>
+        <v>233</v>
       </c>
       <c r="E28" s="1" t="s">
         <v>24</v>
       </c>
       <c r="G28" s="1">
-        <v>50</v>
+        <v>2330</v>
       </c>
       <c r="H28" s="1" t="s">
         <v>16</v>
@@ -1205,13 +1205,13 @@
         <v>41</v>
       </c>
       <c r="C29" s="1">
-        <v>5</v>
+        <v>233</v>
       </c>
       <c r="E29" s="1" t="s">
         <v>42</v>
       </c>
       <c r="G29" s="1">
-        <v>150</v>
+        <v>6990</v>
       </c>
       <c r="H29" s="1" t="s">
         <v>16</v>
@@ -1222,13 +1222,13 @@
         <v>43</v>
       </c>
       <c r="C30" s="1">
-        <v>5</v>
+        <v>233</v>
       </c>
       <c r="E30" s="1" t="s">
         <v>24</v>
       </c>
       <c r="G30" s="1">
-        <v>50</v>
+        <v>2330</v>
       </c>
       <c r="H30" s="1" t="s">
         <v>16</v>
@@ -1239,13 +1239,13 @@
         <v>44</v>
       </c>
       <c r="C31" s="1">
-        <v>5</v>
+        <v>233</v>
       </c>
       <c r="E31" s="1" t="s">
         <v>18</v>
       </c>
       <c r="G31" s="1">
-        <v>100</v>
+        <v>4660</v>
       </c>
       <c r="H31" s="1" t="s">
         <v>16</v>
@@ -1256,13 +1256,13 @@
         <v>45</v>
       </c>
       <c r="C32" s="1">
-        <v>5</v>
+        <v>233</v>
       </c>
       <c r="E32" s="1" t="s">
         <v>21</v>
       </c>
       <c r="G32" s="1">
-        <v>300</v>
+        <v>13980</v>
       </c>
       <c r="H32" s="1" t="s">
         <v>16</v>
@@ -1273,13 +1273,13 @@
         <v>46</v>
       </c>
       <c r="C33" s="1">
-        <v>5</v>
+        <v>233</v>
       </c>
       <c r="E33" s="1" t="s">
         <v>47</v>
       </c>
       <c r="G33" s="1">
-        <v>200</v>
+        <v>9320</v>
       </c>
       <c r="H33" s="1" t="s">
         <v>16</v>
@@ -1290,13 +1290,13 @@
         <v>48</v>
       </c>
       <c r="C34" s="1">
-        <v>5</v>
+        <v>233</v>
       </c>
       <c r="E34" s="1" t="s">
         <v>21</v>
       </c>
       <c r="G34" s="1">
-        <v>300</v>
+        <v>13980</v>
       </c>
       <c r="H34" s="1" t="s">
         <v>16</v>
@@ -1307,13 +1307,13 @@
         <v>49</v>
       </c>
       <c r="C35" s="1">
-        <v>5</v>
+        <v>233</v>
       </c>
       <c r="E35" s="1" t="s">
         <v>18</v>
       </c>
       <c r="G35" s="1">
-        <v>100</v>
+        <v>4660</v>
       </c>
       <c r="H35" s="1" t="s">
         <v>16</v>
@@ -1324,13 +1324,13 @@
         <v>50</v>
       </c>
       <c r="C36" s="1">
-        <v>5</v>
+        <v>233</v>
       </c>
       <c r="E36" s="1" t="s">
         <v>47</v>
       </c>
       <c r="G36" s="1">
-        <v>200</v>
+        <v>9320</v>
       </c>
       <c r="H36" s="1" t="s">
         <v>16</v>
@@ -1341,13 +1341,13 @@
         <v>51</v>
       </c>
       <c r="C37" s="1">
-        <v>5</v>
+        <v>233</v>
       </c>
       <c r="E37" s="1" t="s">
         <v>47</v>
       </c>
       <c r="G37" s="1">
-        <v>200</v>
+        <v>9320</v>
       </c>
       <c r="H37" s="1" t="s">
         <v>16</v>
@@ -1358,13 +1358,13 @@
         <v>52</v>
       </c>
       <c r="C38" s="1">
-        <v>5</v>
+        <v>233</v>
       </c>
       <c r="E38" s="1" t="s">
         <v>47</v>
       </c>
       <c r="G38" s="1">
-        <v>200</v>
+        <v>9320</v>
       </c>
       <c r="H38" s="1" t="s">
         <v>16</v>
@@ -1418,13 +1418,13 @@
         <v>54</v>
       </c>
       <c r="C43" s="1">
-        <v>5</v>
+        <v>233</v>
       </c>
       <c r="E43" s="1" t="s">
         <v>55</v>
       </c>
       <c r="G43" s="1">
-        <v>75</v>
+        <v>3495</v>
       </c>
       <c r="H43" s="1" t="s">
         <v>16</v>
@@ -1435,13 +1435,13 @@
         <v>56</v>
       </c>
       <c r="C44" s="1">
-        <v>5</v>
+        <v>233</v>
       </c>
       <c r="E44" s="1" t="s">
         <v>55</v>
       </c>
       <c r="G44" s="1">
-        <v>75</v>
+        <v>3495</v>
       </c>
       <c r="H44" s="1" t="s">
         <v>16</v>
@@ -1452,13 +1452,13 @@
         <v>57</v>
       </c>
       <c r="C45" s="1">
-        <v>5</v>
+        <v>233</v>
       </c>
       <c r="E45" s="1" t="s">
         <v>55</v>
       </c>
       <c r="G45" s="1">
-        <v>75</v>
+        <v>3495</v>
       </c>
       <c r="H45" s="1" t="s">
         <v>16</v>
@@ -1469,13 +1469,13 @@
         <v>58</v>
       </c>
       <c r="C46" s="1">
-        <v>5</v>
+        <v>233</v>
       </c>
       <c r="E46" s="1" t="s">
         <v>55</v>
       </c>
       <c r="G46" s="1">
-        <v>75</v>
+        <v>3495</v>
       </c>
       <c r="H46" s="1" t="s">
         <v>16</v>
@@ -1486,13 +1486,13 @@
         <v>57</v>
       </c>
       <c r="C47" s="1">
-        <v>5</v>
+        <v>233</v>
       </c>
       <c r="E47" s="1" t="s">
         <v>24</v>
       </c>
       <c r="G47" s="1">
-        <v>50</v>
+        <v>2330</v>
       </c>
       <c r="H47" s="1" t="s">
         <v>16</v>
@@ -1503,13 +1503,13 @@
         <v>51</v>
       </c>
       <c r="C48" s="1">
-        <v>5</v>
+        <v>233</v>
       </c>
       <c r="E48" s="1" t="s">
         <v>18</v>
       </c>
       <c r="G48" s="1">
-        <v>100</v>
+        <v>4660</v>
       </c>
       <c r="H48" s="1" t="s">
         <v>16</v>
@@ -1520,13 +1520,13 @@
         <v>59</v>
       </c>
       <c r="C49" s="1">
-        <v>5</v>
+        <v>233</v>
       </c>
       <c r="E49" s="1" t="s">
         <v>55</v>
       </c>
       <c r="G49" s="1">
-        <v>75</v>
+        <v>3495</v>
       </c>
       <c r="H49" s="1" t="s">
         <v>16</v>
@@ -1580,7 +1580,7 @@
         <v>61</v>
       </c>
       <c r="C54" s="1">
-        <v>5</v>
+        <v>233</v>
       </c>
       <c r="E54" s="1" t="s">
         <v>62</v>
@@ -1597,7 +1597,7 @@
         <v>63</v>
       </c>
       <c r="C55" s="1">
-        <v>5</v>
+        <v>233</v>
       </c>
       <c r="E55" s="1" t="s">
         <v>62</v>
@@ -1614,7 +1614,7 @@
         <v>64</v>
       </c>
       <c r="C56" s="1">
-        <v>5</v>
+        <v>233</v>
       </c>
       <c r="E56" s="1" t="s">
         <v>62</v>
@@ -1631,7 +1631,7 @@
         <v>65</v>
       </c>
       <c r="C57" s="1">
-        <v>5</v>
+        <v>233</v>
       </c>
       <c r="E57" s="1" t="s">
         <v>62</v>
@@ -1648,7 +1648,7 @@
         <v>44</v>
       </c>
       <c r="C58" s="1">
-        <v>5</v>
+        <v>233</v>
       </c>
       <c r="E58" s="1" t="s">
         <v>62</v>
@@ -1708,13 +1708,13 @@
         <v>67</v>
       </c>
       <c r="C63" s="1">
-        <v>5</v>
+        <v>233</v>
       </c>
       <c r="E63" s="1" t="s">
         <v>55</v>
       </c>
       <c r="G63" s="1">
-        <v>75</v>
+        <v>3495</v>
       </c>
       <c r="H63" s="1" t="s">
         <v>16</v>
@@ -1725,13 +1725,13 @@
         <v>68</v>
       </c>
       <c r="C64" s="1">
-        <v>5</v>
+        <v>233</v>
       </c>
       <c r="E64" s="1" t="s">
         <v>55</v>
       </c>
       <c r="G64" s="1">
-        <v>75</v>
+        <v>3495</v>
       </c>
       <c r="H64" s="1" t="s">
         <v>16</v>
@@ -1785,13 +1785,13 @@
         <v>70</v>
       </c>
       <c r="C69" s="1">
-        <v>5</v>
+        <v>233</v>
       </c>
       <c r="E69" s="1" t="s">
         <v>24</v>
       </c>
       <c r="G69" s="1">
-        <v>50</v>
+        <v>2330</v>
       </c>
       <c r="H69" s="1" t="s">
         <v>16</v>
@@ -1802,13 +1802,13 @@
         <v>71</v>
       </c>
       <c r="C70" s="1">
-        <v>5</v>
+        <v>233</v>
       </c>
       <c r="E70" s="1" t="s">
         <v>15</v>
       </c>
       <c r="G70" s="1">
-        <v>25</v>
+        <v>1165</v>
       </c>
       <c r="H70" s="1" t="s">
         <v>16</v>
@@ -1819,13 +1819,13 @@
         <v>72</v>
       </c>
       <c r="C71" s="1">
-        <v>5</v>
+        <v>233</v>
       </c>
       <c r="E71" s="1" t="s">
         <v>18</v>
       </c>
       <c r="G71" s="1">
-        <v>100</v>
+        <v>4660</v>
       </c>
       <c r="H71" s="1" t="s">
         <v>16</v>
@@ -1836,13 +1836,13 @@
         <v>73</v>
       </c>
       <c r="C72" s="1">
-        <v>5</v>
+        <v>233</v>
       </c>
       <c r="E72" s="1" t="s">
         <v>15</v>
       </c>
       <c r="G72" s="1">
-        <v>25</v>
+        <v>1165</v>
       </c>
       <c r="H72" s="1" t="s">
         <v>16</v>
@@ -1853,13 +1853,13 @@
         <v>74</v>
       </c>
       <c r="C73" s="1">
-        <v>5</v>
+        <v>233</v>
       </c>
       <c r="E73" s="1" t="s">
         <v>18</v>
       </c>
       <c r="G73" s="1">
-        <v>100</v>
+        <v>4660</v>
       </c>
       <c r="H73" s="1" t="s">
         <v>16</v>
@@ -1870,13 +1870,13 @@
         <v>75</v>
       </c>
       <c r="C74" s="1">
-        <v>5</v>
+        <v>233</v>
       </c>
       <c r="E74" s="1" t="s">
         <v>24</v>
       </c>
       <c r="G74" s="1">
-        <v>50</v>
+        <v>2330</v>
       </c>
       <c r="H74" s="1" t="s">
         <v>16</v>
@@ -1887,13 +1887,13 @@
         <v>76</v>
       </c>
       <c r="C75" s="1">
-        <v>5</v>
+        <v>233</v>
       </c>
       <c r="E75" s="1" t="s">
         <v>77</v>
       </c>
       <c r="G75" s="1">
-        <v>250</v>
+        <v>11650</v>
       </c>
       <c r="H75" s="1" t="s">
         <v>16</v>
@@ -1947,13 +1947,13 @@
         <v>79</v>
       </c>
       <c r="C80" s="1">
-        <v>5</v>
+        <v>233</v>
       </c>
       <c r="E80" s="1" t="s">
         <v>24</v>
       </c>
       <c r="G80" s="1">
-        <v>50</v>
+        <v>2330</v>
       </c>
       <c r="H80" s="1" t="s">
         <v>16</v>
@@ -1964,13 +1964,13 @@
         <v>80</v>
       </c>
       <c r="C81" s="1">
-        <v>5</v>
+        <v>233</v>
       </c>
       <c r="E81" s="1" t="s">
         <v>37</v>
       </c>
       <c r="G81" s="1">
-        <v>125</v>
+        <v>5825</v>
       </c>
       <c r="H81" s="1" t="s">
         <v>16</v>
@@ -1981,13 +1981,13 @@
         <v>81</v>
       </c>
       <c r="C82" s="1">
-        <v>5</v>
+        <v>233</v>
       </c>
       <c r="E82" s="1" t="s">
         <v>18</v>
       </c>
       <c r="G82" s="1">
-        <v>100</v>
+        <v>4660</v>
       </c>
       <c r="H82" s="1" t="s">
         <v>16</v>
@@ -1998,13 +1998,13 @@
         <v>82</v>
       </c>
       <c r="C83" s="1">
-        <v>5</v>
+        <v>233</v>
       </c>
       <c r="E83" s="1" t="s">
         <v>83</v>
       </c>
       <c r="G83" s="1">
-        <v>20</v>
+        <v>932</v>
       </c>
       <c r="H83" s="1" t="s">
         <v>16</v>
@@ -2015,13 +2015,13 @@
         <v>84</v>
       </c>
       <c r="C84" s="1">
-        <v>5</v>
+        <v>233</v>
       </c>
       <c r="E84" s="1" t="s">
         <v>85</v>
       </c>
       <c r="G84" s="1">
-        <v>10</v>
+        <v>466</v>
       </c>
       <c r="H84" s="1" t="s">
         <v>16</v>
@@ -2075,13 +2075,13 @@
         <v>67</v>
       </c>
       <c r="C89" s="1">
-        <v>5</v>
+        <v>233</v>
       </c>
       <c r="E89" s="1" t="s">
         <v>55</v>
       </c>
       <c r="G89" s="1">
-        <v>75</v>
+        <v>3495</v>
       </c>
       <c r="H89" s="1" t="s">
         <v>16</v>
@@ -2092,13 +2092,13 @@
         <v>68</v>
       </c>
       <c r="C90" s="1">
-        <v>5</v>
+        <v>233</v>
       </c>
       <c r="E90" s="1" t="s">
         <v>55</v>
       </c>
       <c r="G90" s="1">
-        <v>75</v>
+        <v>3495</v>
       </c>
       <c r="H90" s="1" t="s">
         <v>16</v>
@@ -2152,13 +2152,13 @@
         <v>88</v>
       </c>
       <c r="C95" s="1">
-        <v>5</v>
+        <v>233</v>
       </c>
       <c r="E95" s="1" t="s">
         <v>24</v>
       </c>
       <c r="G95" s="1">
-        <v>50</v>
+        <v>2330</v>
       </c>
       <c r="H95" s="1" t="s">
         <v>16</v>
@@ -2169,13 +2169,13 @@
         <v>89</v>
       </c>
       <c r="C96" s="1">
-        <v>5</v>
+        <v>233</v>
       </c>
       <c r="E96" s="1" t="s">
         <v>15</v>
       </c>
       <c r="G96" s="1">
-        <v>25</v>
+        <v>1165</v>
       </c>
       <c r="H96" s="1" t="s">
         <v>16</v>
@@ -2186,13 +2186,13 @@
         <v>90</v>
       </c>
       <c r="C97" s="1">
-        <v>5</v>
+        <v>233</v>
       </c>
       <c r="E97" s="1" t="s">
         <v>15</v>
       </c>
       <c r="G97" s="1">
-        <v>25</v>
+        <v>1165</v>
       </c>
       <c r="H97" s="1" t="s">
         <v>16</v>
@@ -2203,13 +2203,13 @@
         <v>91</v>
       </c>
       <c r="C98" s="1">
-        <v>5</v>
+        <v>233</v>
       </c>
       <c r="E98" s="1" t="s">
         <v>92</v>
       </c>
       <c r="G98" s="1">
-        <v>15</v>
+        <v>699</v>
       </c>
       <c r="H98" s="1" t="s">
         <v>16</v>
@@ -2220,13 +2220,13 @@
         <v>93</v>
       </c>
       <c r="C99" s="1">
-        <v>5</v>
+        <v>233</v>
       </c>
       <c r="E99" s="1" t="s">
         <v>92</v>
       </c>
       <c r="G99" s="1">
-        <v>15</v>
+        <v>699</v>
       </c>
       <c r="H99" s="1" t="s">
         <v>16</v>
@@ -2237,13 +2237,13 @@
         <v>94</v>
       </c>
       <c r="C100" s="1">
-        <v>5</v>
+        <v>233</v>
       </c>
       <c r="E100" s="1" t="s">
         <v>92</v>
       </c>
       <c r="G100" s="1">
-        <v>15</v>
+        <v>699</v>
       </c>
       <c r="H100" s="1" t="s">
         <v>16</v>
@@ -2254,13 +2254,13 @@
         <v>95</v>
       </c>
       <c r="C101" s="1">
-        <v>5</v>
+        <v>233</v>
       </c>
       <c r="E101" s="1" t="s">
         <v>92</v>
       </c>
       <c r="G101" s="1">
-        <v>15</v>
+        <v>699</v>
       </c>
       <c r="H101" s="1" t="s">
         <v>16</v>
@@ -2271,13 +2271,13 @@
         <v>96</v>
       </c>
       <c r="C102" s="1">
-        <v>5</v>
+        <v>233</v>
       </c>
       <c r="E102" s="1" t="s">
         <v>24</v>
       </c>
       <c r="G102" s="1">
-        <v>50</v>
+        <v>2330</v>
       </c>
       <c r="H102" s="1" t="s">
         <v>16</v>
@@ -2331,13 +2331,13 @@
         <v>97</v>
       </c>
       <c r="C107" s="1">
-        <v>5</v>
+        <v>233</v>
       </c>
       <c r="E107" s="1" t="s">
         <v>21</v>
       </c>
       <c r="G107" s="1">
-        <v>300</v>
+        <v>13980</v>
       </c>
       <c r="H107" s="1" t="s">
         <v>16</v>
@@ -2348,13 +2348,13 @@
         <v>98</v>
       </c>
       <c r="C108" s="1">
-        <v>5</v>
+        <v>233</v>
       </c>
       <c r="E108" s="1" t="s">
         <v>24</v>
       </c>
       <c r="G108" s="1">
-        <v>50</v>
+        <v>2330</v>
       </c>
       <c r="H108" s="1" t="s">
         <v>16</v>
@@ -2365,13 +2365,13 @@
         <v>99</v>
       </c>
       <c r="C109" s="1">
-        <v>5</v>
+        <v>233</v>
       </c>
       <c r="E109" s="1" t="s">
         <v>24</v>
       </c>
       <c r="G109" s="1">
-        <v>50</v>
+        <v>2330</v>
       </c>
       <c r="H109" s="1" t="s">
         <v>16</v>
@@ -2382,13 +2382,13 @@
         <v>100</v>
       </c>
       <c r="C110" s="1">
-        <v>5</v>
+        <v>233</v>
       </c>
       <c r="E110" s="1" t="s">
         <v>47</v>
       </c>
       <c r="G110" s="1">
-        <v>200</v>
+        <v>9320</v>
       </c>
       <c r="H110" s="1" t="s">
         <v>16</v>
@@ -2399,13 +2399,13 @@
         <v>101</v>
       </c>
       <c r="C111" s="1">
-        <v>5</v>
+        <v>233</v>
       </c>
       <c r="E111" s="1" t="s">
         <v>18</v>
       </c>
       <c r="G111" s="1">
-        <v>100</v>
+        <v>4660</v>
       </c>
       <c r="H111" s="1" t="s">
         <v>16</v>
@@ -2416,7 +2416,7 @@
         <v>102</v>
       </c>
       <c r="C112" s="1">
-        <v>5</v>
+        <v>233</v>
       </c>
       <c r="E112" s="1" t="s">
         <v>103</v>
